--- a/data/test/test_excel.xlsx
+++ b/data/test/test_excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rogersobrienconstruction-my.sharepoint.com/personal/hfritz_r-o_com/Documents/Documents/projects/ProPyCore/data/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rogersobrienconstruction-my.sharepoint.com/personal/hfritz_r-o_com/Documents/Documents/packages/ProPyCore/data/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF3D8B7D-1361-49EB-9456-8056BF262EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{EF3D8B7D-1361-49EB-9456-8056BF262EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90A11481-1728-4234-8004-B8C4339FA329}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56469B91-0D73-4801-9D20-B4F9A8579FF9}"/>
   </bookViews>
@@ -36,24 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Number</t>
+    <t>R</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>and</t>
   </si>
   <si>
-    <t>Start Date</t>
+    <t>D</t>
   </si>
   <si>
-    <t>Small Project</t>
+    <t>was</t>
   </si>
   <si>
-    <t>Medium Project</t>
-  </si>
-  <si>
-    <t>Large Project</t>
+    <t>here</t>
   </si>
 </sst>
 </file>
@@ -406,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30021D62-129E-4FC5-A331-22D9DD3582E9}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,48 +414,31 @@
     <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>44790</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44821</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44851</v>
       </c>
     </row>
   </sheetData>
